--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>sueldo</t>
-  </si>
-  <si>
-    <t>Estefania Carolina</t>
   </si>
   <si>
     <t>concepto_1</t>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>anonimo</t>
   </si>
 </sst>
 </file>
@@ -379,11 +379,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -393,7 +391,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -402,13 +400,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -416,10 +414,10 @@
         <v>41426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -427,10 +425,11 @@
         <v>41426</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>30500</v>
+        <f>C2+500</f>
+        <v>10500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -438,10 +437,11 @@
         <v>41426</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>31000</v>
+        <f t="shared" ref="C4:C67" si="0">C3+500</f>
+        <v>11000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -449,10 +449,11 @@
         <v>41426</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>31500</v>
+        <f t="shared" si="0"/>
+        <v>11500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -460,10 +461,11 @@
         <v>41426</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>32000</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -471,10 +473,11 @@
         <v>41426</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>32500</v>
+        <f t="shared" si="0"/>
+        <v>12500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -482,10 +485,11 @@
         <v>41426</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>33000</v>
+        <f t="shared" si="0"/>
+        <v>13000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -493,10 +497,11 @@
         <v>41426</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>33500</v>
+        <f t="shared" si="0"/>
+        <v>13500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -504,10 +509,11 @@
         <v>41426</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>34000</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -515,10 +521,11 @@
         <v>41426</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>34500</v>
+        <f t="shared" si="0"/>
+        <v>14500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -526,10 +533,11 @@
         <v>41426</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>35000</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -537,10 +545,11 @@
         <v>41426</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>35500</v>
+        <f t="shared" si="0"/>
+        <v>15500</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -548,10 +557,11 @@
         <v>41426</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>36000</v>
+        <f t="shared" si="0"/>
+        <v>16000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,10 +569,11 @@
         <v>41426</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>36912.6</v>
+        <f t="shared" si="0"/>
+        <v>16500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,10 +581,671 @@
         <v>41426</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>13300</v>
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="0"/>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:C71" si="1">C67+500</f>
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>44500</v>
       </c>
     </row>
   </sheetData>
